--- a/Rafael-ex2.xlsx
+++ b/Rafael-ex2.xlsx
@@ -16,22 +16,22 @@
     <t>Horario</t>
   </si>
   <si>
-    <t>Speed Test Download</t>
+    <t>Teste 1 Download</t>
   </si>
   <si>
-    <t>Speed Test Upload</t>
+    <t>Teste 1 Upload</t>
   </si>
   <si>
-    <t>nPerf Download</t>
+    <t>Teste 2 Download</t>
   </si>
   <si>
-    <t>nPerf Upload</t>
+    <t>Teste 2 Upload</t>
   </si>
   <si>
-    <t>Minha Conexao Download</t>
+    <t>Teste 3 Donwload</t>
   </si>
   <si>
-    <t>Minha Conexao Upload</t>
+    <t>Teste 3 Upload</t>
   </si>
 </sst>
 </file>
@@ -331,22 +331,22 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2"/>

--- a/Rafael-ex2.xlsx
+++ b/Rafael-ex2.xlsx
@@ -28,7 +28,7 @@
     <t>Teste 2 Upload</t>
   </si>
   <si>
-    <t>Teste 3 Donwload</t>
+    <t>Teste 3 Download</t>
   </si>
   <si>
     <t>Teste 3 Upload</t>
@@ -81,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -90,6 +90,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -343,7 +346,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -370,25 +373,25 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0.375</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>464.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>371.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>593.0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>373.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>627.0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>372.0</v>
       </c>
       <c r="H2" s="1"/>
@@ -412,25 +415,25 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>0.4166666666666667</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>665.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>373.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>582.0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>371.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>571.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>366.0</v>
       </c>
       <c r="H3" s="1"/>
@@ -454,25 +457,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>599.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>373.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>580.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>371.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>613.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>373.0</v>
       </c>
       <c r="H4" s="1"/>
@@ -496,25 +499,25 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>0.5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>597.0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>474.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>639.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>371.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>605.0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>366.0</v>
       </c>
       <c r="H5" s="1"/>
@@ -538,25 +541,25 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>0.5416666666666666</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>598.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>422.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>625.0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>372.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>557.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>371.0</v>
       </c>
       <c r="H6" s="1"/>
@@ -580,25 +583,25 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>0.5833333333333334</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>637.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>373.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>651.0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>372.0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>641.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>374.0</v>
       </c>
       <c r="H7" s="1"/>
@@ -622,25 +625,25 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>0.625</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>608.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>371.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>628.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>390.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>520.0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>378.0</v>
       </c>
       <c r="H8" s="1"/>
@@ -664,25 +667,25 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>691.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>373.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>591.0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>368.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>558.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>371.0</v>
       </c>
       <c r="H9" s="1"/>
@@ -706,25 +709,25 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>0.7083333333333334</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>636.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>372.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>572.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>375.0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>567.0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>369.0</v>
       </c>
       <c r="H10" s="1"/>
@@ -748,25 +751,25 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>0.75</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>640.0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>372.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>604.0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>367.0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>554.0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>380.0</v>
       </c>
       <c r="H11" s="1"/>
@@ -790,25 +793,25 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>0.7916666666666666</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>596.0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>368.0</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>603.0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>371.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>576.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>373.0</v>
       </c>
       <c r="H12" s="1"/>
@@ -832,25 +835,25 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>0.8333333333333334</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>673.0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>366.0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>657.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>373.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>576.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>373.0</v>
       </c>
       <c r="H13" s="1"/>
@@ -874,25 +877,25 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>0.875</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>642.0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>372.0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>565.0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>373.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>617.0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>369.0</v>
       </c>
       <c r="H14" s="1"/>
@@ -916,25 +919,25 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>0.9166666666666666</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>657.0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>370.0</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>610.0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>373.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>594.0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>373.0</v>
       </c>
       <c r="H15" s="1"/>
@@ -958,25 +961,25 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>0.9583333333333334</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>491.0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>369.0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>582.0</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>377.0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>603.0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>371.0</v>
       </c>
       <c r="H16" s="1"/>
